--- a/Test Execution/Feby/Fileuploaderror.xlsx
+++ b/Test Execution/Feby/Fileuploaderror.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Mediware\Mediware-Repository\Test Execution\Feby\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31DDF440-B257-4F01-9C7C-68C779AC8B32}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19298FEC-F9E1-4270-B21B-D2434539DB71}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
   <si>
     <t>Module</t>
   </si>
@@ -34,6 +34,54 @@
   </si>
   <si>
     <t>Appoinment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In Registration when image  cannot be uploaded from the computer
+and also cannot be captured from the camera
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Op </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In op(Add policy),FTP File view
+1).xlxs,.pdf,.png,.jpg files are uploaded successfully but when .xlxs,.docx format selected then it cannot be viewed.
+</t>
+  </si>
+  <si>
+    <t>Caredesk</t>
+  </si>
+  <si>
+    <t>There is no cancel button if wrong file 
+is selected.</t>
+  </si>
+  <si>
+    <t>If Same file is selected and attached again then no warning message is shown</t>
+  </si>
+  <si>
+    <t>select the patient from the list (Transaction&gt;&gt;File Attachment)
+1)All the allowed format is attached successfully but .docx,.xls files when selected 
+for viewing then the data is not loaded</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select the patient from the list (Transaction&gt;&gt;Claim for attachment)
+All allowed format attached successfully
+</t>
+  </si>
+  <si>
+    <t>Radiology</t>
+  </si>
+  <si>
+    <t>In Result Delivery,when file is uploaded
+"File successfully uploaded" message displayed with something went wrong</t>
+  </si>
+  <si>
+    <t>In Radiology,Menu&gt;&gt;Query&gt;&gt;Patient search
+ .docx,.xlsx,.pdf,.jpg,.png can be uploaded sucessfully
+but when .docx,.xlxs are uploaded and opened then it cannot be viewed</t>
+  </si>
+  <si>
+    <t>Out Patient</t>
   </si>
   <si>
     <t>In registration (insurance) file format is not specified
@@ -43,63 +91,55 @@
 4).xls is not uploaded(earlier uploaded .png format is displayed).
 5).txt is not uploaded
 6).pdf is not uploaded
+7).gif is not uploaded
+8).docx is uploaded half portion only and also it cannot be open
+9).mp3 file cannot be uploaded
+10).mp4 file cannot be uploaded.
+11).doc file cannot be uploaded
 7)When each file is uploaded flickering issue occured</t>
   </si>
   <si>
-    <t>In Registration(document) file format is not specified
+    <t xml:space="preserve">In Registration(document) file format is not specified
 1)Flickering issue occurs
 2)When file is uploaded and user try to view it then file format is not supported 
-message is shown</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In Registration when image  cannot be uploaded from the computer
-and also cannot be captured from the camera
- </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Op </t>
-  </si>
-  <si>
-    <t>In Op(Add policy)
-1).png,.jpg,.docx,.pdf are uploaded successfully.
-2)when file format .docx,.pdf,.xlxs are selected the it cannot be viewed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In op(Add policy),FTP File view
-1).xlxs,.pdf,.png,.jpg files are uploaded successfully but when .xlxs,.docx format selected then it cannot be viewed.
+message is shown
+*).jpg,.png,.docx,.gif,.mp4,.mp3,.pdf uploaded
+8).pdf is uploaded but when user tries to open it then it cannot be opened.
 </t>
   </si>
   <si>
-    <t>Caredesk</t>
-  </si>
-  <si>
-    <t>There is no cancel button if wrong file 
-is selected.</t>
-  </si>
-  <si>
-    <t>If Same file is selected and attached again then no warning message is shown</t>
-  </si>
-  <si>
-    <t>select the patient from the list (Transaction&gt;&gt;File Attachment)
-1)All the allowed format is attached successfully but .docx,.xls files when selected 
-for viewing then the data is not loaded</t>
-  </si>
-  <si>
-    <t xml:space="preserve">select the patient from the list (Transaction&gt;&gt;Claim for attachment)
-All allowed format attached successfully
+    <t xml:space="preserve">In Op (Appoinment List)
+Add Insurance
+1).jpg Added successfully
+2).png Added Successfully.
+3).pdf  Added Successfully.
+4).gif Added Successfully.
+5).mp3 file Added Successfully.
+6).mp4 file Addedd Successfully
+7).docx file uploaded successfully.
+8).doc file uploaded successfully.
+9).xlsx file uploaded successfully but when user tries to view the file it is not possible.
+Edit Insurance:
+1).jpg,.png,.pdf,.gif,.mp3,.mp4,.docx,.doc,.mp4,.mp3,.xlsx file uploaded successfully.
+But after uploading the files when user tries to view .docx,.doc,.xlsx then it cant be viewed ,The downloading symbol is shown 
 </t>
   </si>
   <si>
-    <t>Radiology</t>
-  </si>
-  <si>
-    <t>In Result Delivery,when file is uploaded
-"File successfully uploaded" message displayed with something went wrong</t>
-  </si>
-  <si>
-    <t>In Radiology,Menu&gt;&gt;Query&gt;&gt;Patient search
- .docx,.xlsx,.pdf,.jpg,.png can be uploaded sucessfully
-but when .docx,.xlxs are uploaded and opened then it cannot be viewed</t>
+    <t xml:space="preserve">In Op(out patient tab)
+Select a patient and Add insurance
+1).jpg file uploaded successfully
+2).png file uploaded successfully.
+3).docx file uploaded successfully but the user can't view the file .
+4).pdf file uploaded successfully.
+5).xlsx file uploaded successfully but user can't view the file when it is selected
+6).doc file uploaded successfully but the user can't view the data in the file.
+7).mp4,.mp3,.gif file uploaded successfully and also viewed successfully.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In out patient(Patient Search)
+View Medical Record&gt;&gt;physical files
+</t>
   </si>
 </sst>
 </file>
@@ -427,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -448,26 +488,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="195" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -475,55 +515,77 @@
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="150" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="345" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="2"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10" s="2"/>
+    </row>
+    <row r="11" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="12" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B12" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="2" t="s">
+      <c r="B13" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="2" t="s">
+    <row r="15" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
